--- a/data/pca/factorExposure/factorExposure_2013-06-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-06-28.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.002060501763964944</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001381671491779931</v>
+      </c>
+      <c r="C2">
+        <v>-0.0320921733821685</v>
+      </c>
+      <c r="D2">
+        <v>0.003952768634281698</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.002787638940563449</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006225020826371488</v>
+      </c>
+      <c r="C4">
+        <v>-0.08316912719964113</v>
+      </c>
+      <c r="D4">
+        <v>0.08036925130822323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0003201729814015613</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01357049939981662</v>
+      </c>
+      <c r="C6">
+        <v>-0.1054584318752657</v>
+      </c>
+      <c r="D6">
+        <v>0.03996578500915934</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001241108538592424</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004947731365950578</v>
+      </c>
+      <c r="C7">
+        <v>-0.05159181134787601</v>
+      </c>
+      <c r="D7">
+        <v>0.03751117842763594</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.002871607092241365</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.006032011864476168</v>
+      </c>
+      <c r="C8">
+        <v>-0.03833743724499729</v>
+      </c>
+      <c r="D8">
+        <v>0.03829271925281825</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.005802161880472308</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004190162858807966</v>
+      </c>
+      <c r="C9">
+        <v>-0.06724867368208448</v>
+      </c>
+      <c r="D9">
+        <v>0.07049416778215814</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.004540876264942571</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.006033976558316225</v>
+      </c>
+      <c r="C10">
+        <v>-0.08931915814034203</v>
+      </c>
+      <c r="D10">
+        <v>-0.2172669424743234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.005914191787139439</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005094394466555161</v>
+      </c>
+      <c r="C11">
+        <v>-0.07801000292242165</v>
+      </c>
+      <c r="D11">
+        <v>0.06579695013174058</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0009766031387611997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003917834199010455</v>
+      </c>
+      <c r="C12">
+        <v>-0.06221130535381256</v>
+      </c>
+      <c r="D12">
+        <v>0.04697585091168308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.002753459850923123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008716324666235441</v>
+      </c>
+      <c r="C13">
+        <v>-0.06803162836256327</v>
+      </c>
+      <c r="D13">
+        <v>0.07615380415595685</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.003829575940580992</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.002043889135092965</v>
+      </c>
+      <c r="C14">
+        <v>-0.04751906287359662</v>
+      </c>
+      <c r="D14">
+        <v>0.01417924396656222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.003148142381594457</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005880580680338744</v>
+      </c>
+      <c r="C15">
+        <v>-0.03712338799859275</v>
+      </c>
+      <c r="D15">
+        <v>0.04485694678730284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.003620514816322757</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005144287226882221</v>
+      </c>
+      <c r="C16">
+        <v>-0.06386195678616675</v>
+      </c>
+      <c r="D16">
+        <v>0.05021016234607397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.001391295396591815</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009408848412046665</v>
+      </c>
+      <c r="C20">
+        <v>-0.06476098472736275</v>
+      </c>
+      <c r="D20">
+        <v>0.05753411120724249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.003051334042441323</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.01009431735374763</v>
+      </c>
+      <c r="C21">
+        <v>-0.02677820483209705</v>
+      </c>
+      <c r="D21">
+        <v>0.0346791318926428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01633782476503925</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.007493977535437624</v>
+      </c>
+      <c r="C22">
+        <v>-0.08463600284923124</v>
+      </c>
+      <c r="D22">
+        <v>0.1049496297670005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01659819259007515</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.007248837868622449</v>
+      </c>
+      <c r="C23">
+        <v>-0.08722245275857077</v>
+      </c>
+      <c r="D23">
+        <v>0.1021369124366969</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.004540787279647669</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004704702767753246</v>
+      </c>
+      <c r="C24">
+        <v>-0.07148029094824526</v>
+      </c>
+      <c r="D24">
+        <v>0.0598725741607159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.005630091327142332</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003076725943298567</v>
+      </c>
+      <c r="C25">
+        <v>-0.07623236917982891</v>
+      </c>
+      <c r="D25">
+        <v>0.06382612370536279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.007057461139888173</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003861757420517051</v>
+      </c>
+      <c r="C26">
+        <v>-0.04340459181727834</v>
+      </c>
+      <c r="D26">
+        <v>0.01620654425170135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.005209916326608654</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0005023823908312509</v>
+      </c>
+      <c r="C28">
+        <v>-0.1382022752996351</v>
+      </c>
+      <c r="D28">
+        <v>-0.301230948752135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.00159841415231208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003498289956489129</v>
+      </c>
+      <c r="C29">
+        <v>-0.05014978445983942</v>
+      </c>
+      <c r="D29">
+        <v>0.02063034888481086</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.005560939532414075</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009378181750018297</v>
+      </c>
+      <c r="C30">
+        <v>-0.1327421558631477</v>
+      </c>
+      <c r="D30">
+        <v>0.1112923249174773</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0001864990087107505</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006200115206500254</v>
+      </c>
+      <c r="C31">
+        <v>-0.0467236707936395</v>
+      </c>
+      <c r="D31">
+        <v>0.03470209639301122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0003482200890623176</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003648963269124466</v>
+      </c>
+      <c r="C32">
+        <v>-0.04050706637164469</v>
+      </c>
+      <c r="D32">
+        <v>0.01648472217945578</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.004508162532723629</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008057485730465415</v>
+      </c>
+      <c r="C33">
+        <v>-0.08092389830202919</v>
+      </c>
+      <c r="D33">
+        <v>0.07725438630645252</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.005974103860357401</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.00386029799199547</v>
+      </c>
+      <c r="C34">
+        <v>-0.05598599687928643</v>
+      </c>
+      <c r="D34">
+        <v>0.04442708773381546</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.004287300835152077</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004910898878882857</v>
+      </c>
+      <c r="C35">
+        <v>-0.0388429858423333</v>
+      </c>
+      <c r="D35">
+        <v>0.01633148182314149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.005530647902442085</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001205081917140288</v>
+      </c>
+      <c r="C36">
+        <v>-0.02724528811487745</v>
+      </c>
+      <c r="D36">
+        <v>0.01627647233711664</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002258135213931663</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.00924856574855035</v>
+      </c>
+      <c r="C38">
+        <v>-0.03539385093749046</v>
+      </c>
+      <c r="D38">
+        <v>0.02991327867120989</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01563443427728079</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001053455326204775</v>
+      </c>
+      <c r="C39">
+        <v>-0.1106528196987335</v>
+      </c>
+      <c r="D39">
+        <v>0.08649475934864187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.008294370521368277</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002467560956525759</v>
+      </c>
+      <c r="C40">
+        <v>-0.08500028752828416</v>
+      </c>
+      <c r="D40">
+        <v>0.03356863674595716</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>6.701575275907619e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.00759751326592652</v>
+      </c>
+      <c r="C41">
+        <v>-0.04146175089842895</v>
+      </c>
+      <c r="D41">
+        <v>0.03459071567794</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.002125230329607745</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003083257699920398</v>
+      </c>
+      <c r="C43">
+        <v>-0.05172523329443802</v>
+      </c>
+      <c r="D43">
+        <v>0.02766047734069361</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.005282015665482531</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003852035126319586</v>
+      </c>
+      <c r="C44">
+        <v>-0.1048666631983962</v>
+      </c>
+      <c r="D44">
+        <v>0.08250774757634842</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.002355941053377169</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002631322311897265</v>
+      </c>
+      <c r="C46">
+        <v>-0.03372463483820522</v>
+      </c>
+      <c r="D46">
+        <v>0.03346228259846915</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.00264861265678807</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002757393396358689</v>
+      </c>
+      <c r="C47">
+        <v>-0.04094247812730088</v>
+      </c>
+      <c r="D47">
+        <v>0.0254030544844989</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003698159053700503</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006456037102703448</v>
+      </c>
+      <c r="C48">
+        <v>-0.03264587516333946</v>
+      </c>
+      <c r="D48">
+        <v>0.02036808711660973</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01621482827907168</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01402671454136867</v>
+      </c>
+      <c r="C49">
+        <v>-0.1649135502568068</v>
+      </c>
+      <c r="D49">
+        <v>0.0436687745211506</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.0002791345643091825</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.004040190177097478</v>
+      </c>
+      <c r="C50">
+        <v>-0.04283118249574999</v>
+      </c>
+      <c r="D50">
+        <v>0.03770353809008322</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.002669692952526329</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004205597483408176</v>
+      </c>
+      <c r="C51">
+        <v>-0.02002218113231361</v>
+      </c>
+      <c r="D51">
+        <v>0.03432654824346423</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>2.647427867892465e-05</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02013713609760904</v>
+      </c>
+      <c r="C53">
+        <v>-0.162352665564571</v>
+      </c>
+      <c r="D53">
+        <v>0.06026611335687138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001383406635386864</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008719005873309786</v>
+      </c>
+      <c r="C54">
+        <v>-0.05391819501572363</v>
+      </c>
+      <c r="D54">
+        <v>0.04299738294128568</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.005897429892194188</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009552412578234405</v>
+      </c>
+      <c r="C55">
+        <v>-0.1033983204977477</v>
+      </c>
+      <c r="D55">
+        <v>0.0553939254379054</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.001535195105254399</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01893829507147065</v>
+      </c>
+      <c r="C56">
+        <v>-0.1669784256791565</v>
+      </c>
+      <c r="D56">
+        <v>0.06161262458220543</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.00891145665204582</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01964177579790708</v>
+      </c>
+      <c r="C58">
+        <v>-0.09974134485988501</v>
+      </c>
+      <c r="D58">
+        <v>0.0795936274890915</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.009148833471609739</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009041433038901906</v>
+      </c>
+      <c r="C59">
+        <v>-0.1784258195929707</v>
+      </c>
+      <c r="D59">
+        <v>-0.2687154067018645</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.008852006746269167</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.0229711445005467</v>
+      </c>
+      <c r="C60">
+        <v>-0.2206363051986166</v>
+      </c>
+      <c r="D60">
+        <v>0.03762410907205725</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01795131368526985</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001966966167708062</v>
+      </c>
+      <c r="C61">
+        <v>-0.0929126125701355</v>
+      </c>
+      <c r="D61">
+        <v>0.06596267149042027</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1891475915633268</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1448504643248417</v>
+      </c>
+      <c r="C62">
+        <v>-0.067553255275986</v>
+      </c>
+      <c r="D62">
+        <v>0.05395059175793158</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.003019490113453387</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006846876784454895</v>
+      </c>
+      <c r="C63">
+        <v>-0.06013644891705048</v>
+      </c>
+      <c r="D63">
+        <v>0.02164930203456565</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.006303247950877433</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01571221960505957</v>
+      </c>
+      <c r="C64">
+        <v>-0.09651867984716229</v>
+      </c>
+      <c r="D64">
+        <v>0.07050862837774517</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.0005701551789546911</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.0172772494600187</v>
+      </c>
+      <c r="C65">
+        <v>-0.1098794632723037</v>
+      </c>
+      <c r="D65">
+        <v>0.04032048403738377</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.01217843871479951</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01228479833174373</v>
+      </c>
+      <c r="C66">
+        <v>-0.1467454646185975</v>
+      </c>
+      <c r="D66">
+        <v>0.1258729527215763</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.001817240203328337</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01521499233627014</v>
+      </c>
+      <c r="C67">
+        <v>-0.0639662114877403</v>
+      </c>
+      <c r="D67">
+        <v>0.04277435610748072</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.009136626085677819</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.00170381639345366</v>
+      </c>
+      <c r="C68">
+        <v>-0.1215306923157777</v>
+      </c>
+      <c r="D68">
+        <v>-0.2627355046763269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.003351320589862172</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005128815698544811</v>
+      </c>
+      <c r="C69">
+        <v>-0.04573330002486069</v>
+      </c>
+      <c r="D69">
+        <v>0.04295147653734968</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001285939251670225</v>
+      </c>
+      <c r="C70">
+        <v>-0.001562055793431</v>
+      </c>
+      <c r="D70">
+        <v>0.00151510604061952</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.004242975818430627</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006459931959732308</v>
+      </c>
+      <c r="C71">
+        <v>-0.125713907976483</v>
+      </c>
+      <c r="D71">
+        <v>-0.2800826565667434</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.008508131785199644</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01529975756333751</v>
+      </c>
+      <c r="C72">
+        <v>-0.1466855912467037</v>
+      </c>
+      <c r="D72">
+        <v>0.03670152669029714</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01423189540951906</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03136214646173394</v>
+      </c>
+      <c r="C73">
+        <v>-0.2833246254523816</v>
+      </c>
+      <c r="D73">
+        <v>0.05601699439470054</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.005835066931632335</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001865142880175036</v>
+      </c>
+      <c r="C74">
+        <v>-0.1015634494086376</v>
+      </c>
+      <c r="D74">
+        <v>0.04747385992459047</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.006583422477293478</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.0104917964816459</v>
+      </c>
+      <c r="C75">
+        <v>-0.1303214104568869</v>
+      </c>
+      <c r="D75">
+        <v>0.04687971778170479</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.01060413080002594</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02103629284428607</v>
+      </c>
+      <c r="C76">
+        <v>-0.1411121489239298</v>
+      </c>
+      <c r="D76">
+        <v>0.07593798744609688</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.008420492593113926</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02252859327745399</v>
+      </c>
+      <c r="C77">
+        <v>-0.1169817567487935</v>
+      </c>
+      <c r="D77">
+        <v>0.1274538250097128</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0008111281081240283</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01467784812616445</v>
+      </c>
+      <c r="C78">
+        <v>-0.08935556594188845</v>
+      </c>
+      <c r="D78">
+        <v>0.0673114382567503</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02646630016660002</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03670137883194807</v>
+      </c>
+      <c r="C79">
+        <v>-0.1523409819450867</v>
+      </c>
+      <c r="D79">
+        <v>0.04382138744235368</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.003198525515337674</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01089421696695292</v>
+      </c>
+      <c r="C80">
+        <v>-0.04367845915603889</v>
+      </c>
+      <c r="D80">
+        <v>0.0298629259818884</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>2.504986335526475e-05</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01444559034881288</v>
+      </c>
+      <c r="C81">
+        <v>-0.118220640018554</v>
+      </c>
+      <c r="D81">
+        <v>0.06332753602915268</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.006354700326412583</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01874933758571913</v>
+      </c>
+      <c r="C82">
+        <v>-0.1379695197567919</v>
+      </c>
+      <c r="D82">
+        <v>0.05341317944550385</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008570720096386392</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009672115195935617</v>
+      </c>
+      <c r="C83">
+        <v>-0.05168614682294566</v>
+      </c>
+      <c r="D83">
+        <v>0.04980157807963127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01351196931055526</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.0123253242493399</v>
+      </c>
+      <c r="C84">
+        <v>-0.03082437101807249</v>
+      </c>
+      <c r="D84">
+        <v>-0.000603700630407563</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01636426562388633</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02848432429536463</v>
+      </c>
+      <c r="C85">
+        <v>-0.1270063787144444</v>
+      </c>
+      <c r="D85">
+        <v>0.06007945838401065</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.003688332962780595</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.004682080633408141</v>
+      </c>
+      <c r="C86">
+        <v>-0.04739842806834295</v>
+      </c>
+      <c r="D86">
+        <v>0.02129131611864978</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.008165419508181766</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01018986097342773</v>
+      </c>
+      <c r="C87">
+        <v>-0.123094918559052</v>
+      </c>
+      <c r="D87">
+        <v>0.08316194055335537</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01474910706739367</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002984405114158427</v>
+      </c>
+      <c r="C88">
+        <v>-0.07295450569048477</v>
+      </c>
+      <c r="D88">
+        <v>0.01764895212651665</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01528646810932164</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001589314022370512</v>
+      </c>
+      <c r="C89">
+        <v>-0.1761679846979394</v>
+      </c>
+      <c r="D89">
+        <v>-0.3288445629599069</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.002276102675984296</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007854158935056336</v>
+      </c>
+      <c r="C90">
+        <v>-0.1581178493491346</v>
+      </c>
+      <c r="D90">
+        <v>-0.3138611549035581</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0004972442378573638</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.009839496246805171</v>
+      </c>
+      <c r="C91">
+        <v>-0.1014024634358486</v>
+      </c>
+      <c r="D91">
+        <v>0.02459403599300412</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.01834486222788878</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001132906363311475</v>
+      </c>
+      <c r="C92">
+        <v>-0.1645377822290084</v>
+      </c>
+      <c r="D92">
+        <v>-0.3154682989830522</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.001738583606922594</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005399174822929976</v>
+      </c>
+      <c r="C93">
+        <v>-0.1399210258072358</v>
+      </c>
+      <c r="D93">
+        <v>-0.3076598225238329</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.001245577192274449</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02178472273527278</v>
+      </c>
+      <c r="C94">
+        <v>-0.1544574442659351</v>
+      </c>
+      <c r="D94">
+        <v>0.03710728947273813</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.006929736094059041</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01660743602240992</v>
+      </c>
+      <c r="C95">
+        <v>-0.1199003516925471</v>
+      </c>
+      <c r="D95">
+        <v>0.06989052257615426</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.004598579102011738</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03257214086444556</v>
+      </c>
+      <c r="C97">
+        <v>-0.1662257944177717</v>
+      </c>
+      <c r="D97">
+        <v>0.04882653164310387</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.0100294589690874</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.0358099235511498</v>
+      </c>
+      <c r="C98">
+        <v>-0.2572014989257915</v>
+      </c>
+      <c r="D98">
+        <v>0.05505782476487857</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9791932525924562</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9825688922515233</v>
+      </c>
+      <c r="C99">
+        <v>0.1073179205550304</v>
+      </c>
+      <c r="D99">
+        <v>-0.03720696581223502</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001550974782910145</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003542200479658843</v>
+      </c>
+      <c r="C101">
+        <v>-0.05023121257921088</v>
+      </c>
+      <c r="D101">
+        <v>0.02068985680373301</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
